--- a/src/test/resources/each_if_template.xlsx
+++ b/src/test/resources/each_if_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_tzg\jxls-plus\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A04592-F0A0-43EE-9502-421AA27C4A69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795CC041-0AEE-4FDD-AC99-D9D13D4257C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="employees" var="emp" lastCell="E5")</t>
+          <t>jx:each(items="employees" var="emp" lastCell="E5")
+jx:if(condition="emp.age&gt;18" lastCell="E5");</t>
         </r>
       </text>
     </comment>
@@ -218,14 +219,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,7 +511,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -525,13 +526,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -541,36 +542,36 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
